--- a/物流/郴州物流2021.xlsx
+++ b/物流/郴州物流2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA5BF77-8E5E-466E-83B9-2656D35C7EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECA1AA-C3AA-429C-A715-F548FA326F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度汇总" sheetId="9" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -673,7 +673,7 @@
       </c>
       <c r="E4" s="8">
         <f>SUM(E2:E3)</f>
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F4" s="17"/>
     </row>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -833,7 +833,9 @@
       <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>10280.76</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6">
@@ -854,7 +856,9 @@
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>3063.31</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
@@ -875,7 +879,9 @@
       <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>5299.76</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
@@ -896,7 +902,9 @@
       <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>6569.93</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
@@ -917,7 +925,9 @@
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>5917.99</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
@@ -938,7 +948,9 @@
       <c r="F11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>4985.99</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
@@ -959,7 +971,9 @@
       <c r="F12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>6370.71</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6">
@@ -980,176 +994,308 @@
       <c r="F13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>6873.77</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6">
         <v>44209</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="5">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11745</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44.63</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11700.37</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>11700.37</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6">
         <v>44210</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="5">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5920</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22.49</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5897.51</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>5897.51</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6">
         <v>44211</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="5">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5710</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5688.3</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>5688.3</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>44212</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="5">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6670</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25.87</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6644.13</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>6644.13</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6">
         <v>44213</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="5">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8465</v>
+      </c>
+      <c r="D18" s="2">
+        <v>36.57</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8428.43</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>8428.43</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6">
         <v>44214</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="5">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3505</v>
+      </c>
+      <c r="D19" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3491.7</v>
+      </c>
       <c r="F19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>3491.7</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6">
         <v>44215</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="5">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16410</v>
+      </c>
+      <c r="D20" s="2">
+        <v>62.37</v>
+      </c>
+      <c r="E20" s="2">
+        <v>16347.63</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>16347.63</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6">
         <v>44216</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="5">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16580</v>
+      </c>
+      <c r="D21" s="2">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16515.990000000002</v>
+      </c>
       <c r="F21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>16515.990000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6">
         <v>44217</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="5">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4020</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15.28</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4004.72</v>
+      </c>
       <c r="F22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>4004.72</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6">
         <v>44218</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6">
         <v>44219</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="5">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8606</v>
+      </c>
+      <c r="D24" s="2">
+        <v>32.69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8573.31</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>8573.31</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6">
         <v>44220</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="5">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24405</v>
+      </c>
+      <c r="D25" s="2">
+        <v>93.73</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24311.27</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>24311.27</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6">
         <v>44221</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="5">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>31518</v>
+      </c>
+      <c r="D26" s="2">
+        <v>172.82</v>
+      </c>
+      <c r="E26" s="2">
+        <v>31345.18</v>
+      </c>
       <c r="F26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>31345.18</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6">
@@ -1232,19 +1378,19 @@
     <row r="33" spans="3:7">
       <c r="C33" s="17">
         <f>SUM(C2:C32)</f>
-        <v>84000</v>
+        <v>227554</v>
       </c>
       <c r="D33" s="17">
         <f>SUM(D2:D32)</f>
-        <v>331.61</v>
+        <v>937.06999999999994</v>
       </c>
       <c r="E33" s="17">
         <f>SUM(E2:E32)</f>
-        <v>83668.390000000014</v>
+        <v>226616.92999999996</v>
       </c>
       <c r="G33" s="17">
         <f>SUM(G2:G32)</f>
-        <v>34306.17</v>
+        <v>226616.92999999996</v>
       </c>
     </row>
   </sheetData>

--- a/物流/郴州物流2021.xlsx
+++ b/物流/郴州物流2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECA1AA-C3AA-429C-A715-F548FA326F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C250C1-2FEE-4D15-8E40-9491341DE39B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度汇总" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>总笔数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,18 +132,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转出</t>
     <rPh sb="0" eb="1">
       <t>zhuann chu</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -617,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="17"/>
     </row>
@@ -626,56 +622,39 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>84000</v>
+        <v>229649</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>228703.97</v>
       </c>
       <c r="D2" s="14">
-        <v>0</v>
+        <v>945.03</v>
       </c>
       <c r="E2" s="5">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUM(B2:B2)</f>
+        <v>229649</v>
+      </c>
+      <c r="C3" s="4">
+        <f>SUM(C2:C2)</f>
+        <v>228703.97</v>
+      </c>
+      <c r="D3" s="16">
+        <f>SUM(D2:D2)</f>
+        <v>945.03</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(E2:E2)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <f>SUM(B2:B3)</f>
-        <v>84000</v>
-      </c>
-      <c r="C4" s="4">
-        <f>SUM(C2:C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <f>SUM(D2:D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <f>SUM(E2:E3)</f>
-        <v>26</v>
-      </c>
-      <c r="F4" s="17"/>
+      <c r="F3" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -688,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1301,14 +1280,24 @@
       <c r="A27" s="6">
         <v>44222</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2095</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.96</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2087.04</v>
+      </c>
       <c r="F27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>2087.04</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6">
@@ -1378,19 +1367,19 @@
     <row r="33" spans="3:7">
       <c r="C33" s="17">
         <f>SUM(C2:C32)</f>
-        <v>227554</v>
+        <v>229649</v>
       </c>
       <c r="D33" s="17">
         <f>SUM(D2:D32)</f>
-        <v>937.06999999999994</v>
+        <v>945.03</v>
       </c>
       <c r="E33" s="17">
         <f>SUM(E2:E32)</f>
-        <v>226616.92999999996</v>
+        <v>228703.96999999997</v>
       </c>
       <c r="G33" s="17">
         <f>SUM(G2:G32)</f>
-        <v>226616.92999999996</v>
+        <v>228703.96999999997</v>
       </c>
     </row>
   </sheetData>

--- a/物流/郴州物流2021.xlsx
+++ b/物流/郴州物流2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C250C1-2FEE-4D15-8E40-9491341DE39B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF04FF2-EEA7-4097-B578-35D8921ED4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="3300" windowWidth="21600" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度汇总" sheetId="9" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -631,7 +631,7 @@
         <v>945.03</v>
       </c>
       <c r="E2" s="5">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -652,7 +652,7 @@
       </c>
       <c r="E3" s="8">
         <f>SUM(E2:E2)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" s="17"/>
     </row>
